--- a/OutputFile.xlsx
+++ b/OutputFile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>arithmetic mean</t>
   </si>
@@ -38,91 +38,127 @@
     <t>number of elements</t>
   </si>
   <si>
-    <t>sample size</t>
-  </si>
-  <si>
-    <t>2.9402667837357144</t>
-  </si>
-  <si>
-    <t>1.709180015978412</t>
-  </si>
-  <si>
-    <t>11.096778347403049</t>
-  </si>
-  <si>
-    <t>[1.9181437919957676; 3.9623897754756623]</t>
-  </si>
-  <si>
-    <t>[0.4346042368520953; 0.5215822595901174]</t>
-  </si>
-  <si>
-    <t>[29.260864486482195; 30.483085534022496]</t>
-  </si>
-  <si>
-    <t>1.7825869854193162</t>
-  </si>
-  <si>
-    <t>2.2821276952485086</t>
-  </si>
-  <si>
-    <t>1.2428885471717557</t>
-  </si>
-  <si>
-    <t>5.241281302347995</t>
-  </si>
-  <si>
-    <t>3.900567050629623</t>
-  </si>
-  <si>
-    <t>13.792058718490772</t>
-  </si>
-  <si>
-    <t>27.471029690342696</t>
-  </si>
-  <si>
-    <t>15.214423316457475</t>
-  </si>
-  <si>
-    <t>190.22088369429733</t>
+    <t>sample range</t>
+  </si>
+  <si>
+    <t>0.08575586070772259</t>
+  </si>
+  <si>
+    <t>0.34197419404755963</t>
+  </si>
+  <si>
+    <t>0.9739059030803672</t>
+  </si>
+  <si>
+    <t>1.43941988944362</t>
+  </si>
+  <si>
+    <t>[-0.023818239970560817; 0.19532996138600603]</t>
+  </si>
+  <si>
+    <t>[0.5574654270262406; 0.6389196277485522]</t>
+  </si>
+  <si>
+    <t>[1.6490671514463981; 2.826471490845565]</t>
+  </si>
+  <si>
+    <t>[2.2450599539557397; 3.4268637431110163]</t>
+  </si>
+  <si>
+    <t>6.552068306815342</t>
+  </si>
+  <si>
+    <t>1.446623694918945</t>
+  </si>
+  <si>
+    <t>2.0488497100441903</t>
+  </si>
+  <si>
+    <t>1.6894036602979448</t>
+  </si>
+  <si>
+    <t>0.5618782570667403</t>
+  </si>
+  <si>
+    <t>0.494707972160009</t>
+  </si>
+  <si>
+    <t>1.9953868271365356</t>
+  </si>
+  <si>
+    <t>2.431761229931715</t>
+  </si>
+  <si>
+    <t>0.315707175764358</t>
+  </si>
+  <si>
+    <t>0.24473597771866823</t>
+  </si>
+  <si>
+    <t>3.981568589910011</t>
+  </si>
+  <si>
+    <t>5.9134626793990055</t>
   </si>
   <si>
     <t>NaN</t>
   </si>
   <si>
-    <t>[11.891505933832377; -4.9604080324061215]</t>
-  </si>
-  <si>
-    <t>[38.30168768866098; -4.9604080324061215]</t>
+    <t>[0.9832735722884536; -0.9950319151394069]</t>
+  </si>
+  <si>
+    <t>[0.9917113389539829; -0.9950319151394069]</t>
+  </si>
+  <si>
+    <t>[10.625527530777841; -3.9137531981865763]</t>
+  </si>
+  <si>
+    <t>[11.406159658626562; -3.9137531981865763]</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>16.8519139662385</t>
-  </si>
-  <si>
-    <t>43.2620957210671</t>
+    <t>1.9783054874278605</t>
+  </si>
+  <si>
+    <t>1.9867432540933898</t>
+  </si>
+  <si>
+    <t>14.539280728964417</t>
+  </si>
+  <si>
+    <t>15.319912856813138</t>
   </si>
   <si>
     <t>coefficient of covariance</t>
   </si>
   <si>
-    <t>27.471029690342707</t>
-  </si>
-  <si>
-    <t>0.1037730414268887</t>
-  </si>
-  <si>
-    <t>-1.667394929204851</t>
-  </si>
-  <si>
-    <t>0.049731057390754306</t>
-  </si>
-  <si>
-    <t>-0.07348258182074197</t>
-  </si>
-  <si>
-    <t>9.8199244981799</t>
+    <t>0.010352502365498943</t>
+  </si>
+  <si>
+    <t>0.29473446657327257</t>
+  </si>
+  <si>
+    <t>0.30508696893877146</t>
+  </si>
+  <si>
+    <t>0.0436149727015632</t>
+  </si>
+  <si>
+    <t>0.01230734702769087</t>
+  </si>
+  <si>
+    <t>0.05592231972925407</t>
+  </si>
+  <si>
+    <t>9.112969069579835</t>
+  </si>
+  <si>
+    <t>9.125276416607527</t>
+  </si>
+  <si>
+    <t>9.181198736336777</t>
   </si>
 </sst>
 </file>
@@ -167,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -186,19 +222,25 @@
       <c r="D1" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -206,13 +248,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -220,13 +265,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -234,13 +282,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -248,13 +299,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -262,13 +316,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -276,13 +333,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -290,51 +350,77 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/OutputFile.xlsx
+++ b/OutputFile.xlsx
@@ -44,13 +44,13 @@
     <t>0.08575586070772259</t>
   </si>
   <si>
-    <t>0.34197419404755963</t>
-  </si>
-  <si>
-    <t>0.9739059030803672</t>
-  </si>
-  <si>
-    <t>1.43941988944362</t>
+    <t>0.5981925273873964</t>
+  </si>
+  <si>
+    <t>2.2377693211459815</t>
+  </si>
+  <si>
+    <t>2.8359618485333775</t>
   </si>
   <si>
     <t>[-0.023818239970560817; 0.19532996138600603]</t>
@@ -80,40 +80,43 @@
     <t>0.5618782570667403</t>
   </si>
   <si>
-    <t>0.494707972160009</t>
-  </si>
-  <si>
-    <t>1.9953868271365356</t>
-  </si>
-  <si>
-    <t>2.431761229931715</t>
+    <t>0.2088419802184494</t>
+  </si>
+  <si>
+    <t>3.0187694628076245</t>
+  </si>
+  <si>
+    <t>3.030049296024205</t>
   </si>
   <si>
     <t>0.315707175764358</t>
   </si>
   <si>
-    <t>0.24473597771866823</t>
-  </si>
-  <si>
-    <t>3.981568589910011</t>
-  </si>
-  <si>
-    <t>5.9134626793990055</t>
+    <t>0.04361497270156321</t>
+  </si>
+  <si>
+    <t>9.112969069579835</t>
+  </si>
+  <si>
+    <t>9.18119873633678</t>
   </si>
   <si>
     <t>NaN</t>
   </si>
   <si>
+    <t>0.5490716333494366</t>
+  </si>
+  <si>
     <t>[0.9832735722884536; -0.9950319151394069]</t>
   </si>
   <si>
-    <t>[0.9917113389539829; -0.9950319151394069]</t>
+    <t>[0.9917113389539829; 0.09216914351260054]</t>
   </si>
   <si>
     <t>[10.625527530777841; -3.9137531981865763]</t>
   </si>
   <si>
-    <t>[11.406159658626562; -3.9137531981865763]</t>
+    <t>[11.406159658626562; -3.4786402046979994]</t>
   </si>
   <si>
     <t>100</t>
@@ -122,13 +125,13 @@
     <t>1.9783054874278605</t>
   </si>
   <si>
-    <t>1.9867432540933898</t>
+    <t>0.8995421954413824</t>
   </si>
   <si>
     <t>14.539280728964417</t>
   </si>
   <si>
-    <t>15.319912856813138</t>
+    <t>14.884799863324561</t>
   </si>
   <si>
     <t>coefficient of covariance</t>
@@ -150,9 +153,6 @@
   </si>
   <si>
     <t>0.05592231972925407</t>
-  </si>
-  <si>
-    <t>9.112969069579835</t>
   </si>
   <si>
     <t>9.125276416607527</t>
@@ -302,7 +302,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>29</v>
@@ -316,16 +316,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -333,16 +333,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -350,21 +350,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -372,38 +372,38 @@
         <v>25</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>47</v>
@@ -411,10 +411,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>47</v>
